--- a/Examples/SuperDecisions/Dam_empty.xlsx
+++ b/Examples/SuperDecisions/Dam_empty.xlsx
@@ -19,7 +19,7 @@
     <t>1.1At what level should the Dam be kept</t>
   </si>
   <si>
-    <t>Enter judgments for the paiwise comparisons in the matrix or direct values in the green cells</t>
+    <t>Enter pairwise comparisons in the white cells of the table or numerical data in the green cells. For the Direct Values column, if the smallest value is best, invert the value before entering it (e.g., $10 as =1/10) .</t>
   </si>
   <si>
     <t>2Decision Criteria</t>
